--- a/DOWNLOADS/EDITAIS/U_120016_E_4642025/U_120016_E_4642025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_120016_E_4642025/U_120016_E_4642025_master.xlsx
@@ -43,16 +43,16 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>Mesa de Som para Rack. Especificações Mínimas Necessárias: Número total de Entradas: 12 entradas; Entradas Mic / Line 6 x entradas de microfone XLR 10 x 1/4 "TRS entradas de linha de nível; Entradas emparelhados entradas de linha estéreo 4 x 1/4 "TRS esquerda e direita; AUX Envia 3; AUX retorna 2 retornos estéreo insere 6; BUS (Grupo) Saídas dois subgrupos; 2 Master Trk I/ O 2 x XLR Saídas; 2 x 1/4 "Saídas TRS; ALT I / O 2 x 1/4 "TRS Sub Saídas; 1 x 1/4 "MON Stereo Output; RCA 2-Track Saídas; Monitor de Saídas 2 x 1/4 "TRS saídas de controle do quarto; 1 x 1/4 "Saída de fone de ouvido estéreo; Seção de EQ 3-Band EQ com Mid varredura em todos os canais; 9-Band Graphic EQ em qualquer rede ou MONITOR OUT; Solo / Mute Botões Mute e Solo em cada canal; Canal Controle de Nível 60 milímetros Faders; Ganho / Controle Sim; Phantom Power +48 V Fantasma; Medição de 12 segmentos estéreo Meters LED; Clipe LEDs em todos os canais; Resposta de Frequência de entrada Mic para saída principal: Sinal-Ruído 110 dB A ponderado (0 dBu In @+22 dB Gain); Distorção Harmônica Total (THD) 0,005% / 0,004% A-weighted; - Compatível com o item 03 deste Grupo.</t>
-  </si>
-  <si>
-    <t>Equipamento Amplificador de Potência. Especificações Mínimas Necessárias: Potência de saída RMS: mínimo de 700W; Impedância saída: 4 ohms; Largura: 48 cm, Altura: 14 cm, Profundidade: 35 cm. - Compatível com o item 03 deste Grupo.</t>
-  </si>
-  <si>
-    <t>Rack para Mesa de Som e periféricos. Especificações Mínimas Necessárias: Rack para Mesa de som, Amplificador de Potência, Equalizadores e Periféricos em geral. Fabricação em Aço, com Rodas e Catracas de ajuste. Dimensões: Altura total: 67 cm Largura máxima ajustável: 51,2cm Comprimento máx: 37,6 cm. - Compatível com os itens 01 e 02 deste Grupo.</t>
-  </si>
-  <si>
-    <t>Mesa de Som tipo Console. Especificações Mínimas Necessárias: Voltagem: 100V / 240V; Console de mixagem: analógica; Pode ser conectado por Plug; Com equalizador; Software incluído; Com pelo menos 4 canais estéreo; Tipo do alimentação: corrente elétrica. Consumo de energia: 50W; Com alimentação fantasma; Com efeitos; Com mínimo de 16 canais; Conectividade: Plug, RCA, USB, XLR.</t>
+    <t>Mesa de Som para Rack. Especificações Mínimas Necessárias: Número total de Entradas: 12 entradas; Entradas Mic / Line 6 x entradas de microfone XLR 10 x 1/4 \"TRS entradas de linha de nível; Entradas emparelhados entradas de linha estéreo 4 x 1/4 \"TRS esquerda e direita; AUX Envia 3; AUX retorna 2 retornos estéreo insere 6; BUS (Grupo) Saídas dois subgrupos; 2 Master Trk I/ O 2 x XLR Saídas; 2 x 1/4 \"Saídas TRS; ALT I / O 2 x 1/4 \"TRS Sub Saídas; 1 x 1/4 \"MON Stereo Output; RCA 2-Track Saídas; Monitor de Saídas 2 x 1/4 \"TRS saídas de controle do quarto; 1 x 1/4 \"Saída de fone de ouvido estéreo; Seção de EQ 3-Band EQ com Mid varredura em todos os canais; 9-Band Graphic EQ em qualquer rede ou MONITOR OUT; Solo / Mute Botões Mute e Solo em</t>
+  </si>
+  <si>
+    <t>Equipamento Amplificador de Potência. Especificações Mínimas Necessárias: Potência de saída RMS: mínimo de 700W; Impedância saída: 4 ohms; Largura: 48 cm, Altura: 14 cm, Profundidade: 35 cm.</t>
+  </si>
+  <si>
+    <t>Rack para Mesa de Som e periféricos. Especificações Mínimas Necessárias: Rack para Mesa de som, Amplificador de Potência, Equalizadores e Periféricos em geral. Fabricação em aço, com rodas e catracas de ajuste. Dimensões: Altura total: 67 cm; Largura máxima ajustável: 51,2cm; Comprimento máximo: 37,6 cm.</t>
+  </si>
+  <si>
+    <t>Mesa de Som tipo Console. Especificações Mínimas Necessárias: Voltagem: 100V / 240V; Console de mixagem: analógica; Pode ser conectado por Plug; Com equalizador; Software incluído; Com pelo menos 4 canais estéreo; Tipo do: 251225 UN 01 5.145,00 5.145,00.</t>
   </si>
   <si>
     <t>U_120016_E_4642025</t>
